--- a/stock/data/삼성생명.xlsx
+++ b/stock/data/삼성생명.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3426"/>
+  <dimension ref="A1:G3459"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79243,10 +79243,769 @@
         <v>92300</v>
       </c>
       <c r="F3426" t="n">
-        <v>373783</v>
+        <v>374101</v>
       </c>
       <c r="G3426" t="n">
         <v>-3.350785340314137</v>
+      </c>
+    </row>
+    <row r="3427">
+      <c r="A3427" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B3427" t="n">
+        <v>92800</v>
+      </c>
+      <c r="C3427" t="n">
+        <v>93500</v>
+      </c>
+      <c r="D3427" t="n">
+        <v>90800</v>
+      </c>
+      <c r="E3427" t="n">
+        <v>91500</v>
+      </c>
+      <c r="F3427" t="n">
+        <v>273054</v>
+      </c>
+      <c r="G3427" t="n">
+        <v>-0.8667388949079089</v>
+      </c>
+    </row>
+    <row r="3428">
+      <c r="A3428" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B3428" t="n">
+        <v>90600</v>
+      </c>
+      <c r="C3428" t="n">
+        <v>93600</v>
+      </c>
+      <c r="D3428" t="n">
+        <v>89800</v>
+      </c>
+      <c r="E3428" t="n">
+        <v>92900</v>
+      </c>
+      <c r="F3428" t="n">
+        <v>334033</v>
+      </c>
+      <c r="G3428" t="n">
+        <v>1.530054644808743</v>
+      </c>
+    </row>
+    <row r="3429">
+      <c r="A3429" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B3429" t="n">
+        <v>92000</v>
+      </c>
+      <c r="C3429" t="n">
+        <v>94100</v>
+      </c>
+      <c r="D3429" t="n">
+        <v>91400</v>
+      </c>
+      <c r="E3429" t="n">
+        <v>92800</v>
+      </c>
+      <c r="F3429" t="n">
+        <v>394918</v>
+      </c>
+      <c r="G3429" t="n">
+        <v>-0.1076426264800861</v>
+      </c>
+    </row>
+    <row r="3430">
+      <c r="A3430" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B3430" t="n">
+        <v>93400</v>
+      </c>
+      <c r="C3430" t="n">
+        <v>94500</v>
+      </c>
+      <c r="D3430" t="n">
+        <v>92500</v>
+      </c>
+      <c r="E3430" t="n">
+        <v>93400</v>
+      </c>
+      <c r="F3430" t="n">
+        <v>261784</v>
+      </c>
+      <c r="G3430" t="n">
+        <v>0.646551724137931</v>
+      </c>
+    </row>
+    <row r="3431">
+      <c r="A3431" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B3431" t="n">
+        <v>92100</v>
+      </c>
+      <c r="C3431" t="n">
+        <v>93700</v>
+      </c>
+      <c r="D3431" t="n">
+        <v>91600</v>
+      </c>
+      <c r="E3431" t="n">
+        <v>91900</v>
+      </c>
+      <c r="F3431" t="n">
+        <v>233917</v>
+      </c>
+      <c r="G3431" t="n">
+        <v>-1.605995717344754</v>
+      </c>
+    </row>
+    <row r="3432">
+      <c r="A3432" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B3432" t="n">
+        <v>91200</v>
+      </c>
+      <c r="C3432" t="n">
+        <v>95800</v>
+      </c>
+      <c r="D3432" t="n">
+        <v>90500</v>
+      </c>
+      <c r="E3432" t="n">
+        <v>93700</v>
+      </c>
+      <c r="F3432" t="n">
+        <v>368699</v>
+      </c>
+      <c r="G3432" t="n">
+        <v>1.958650707290533</v>
+      </c>
+    </row>
+    <row r="3433">
+      <c r="A3433" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B3433" t="n">
+        <v>93900</v>
+      </c>
+      <c r="C3433" t="n">
+        <v>95100</v>
+      </c>
+      <c r="D3433" t="n">
+        <v>89300</v>
+      </c>
+      <c r="E3433" t="n">
+        <v>89500</v>
+      </c>
+      <c r="F3433" t="n">
+        <v>387931</v>
+      </c>
+      <c r="G3433" t="n">
+        <v>-4.482390608324439</v>
+      </c>
+    </row>
+    <row r="3434">
+      <c r="A3434" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B3434" t="n">
+        <v>85400</v>
+      </c>
+      <c r="C3434" t="n">
+        <v>86500</v>
+      </c>
+      <c r="D3434" t="n">
+        <v>82800</v>
+      </c>
+      <c r="E3434" t="n">
+        <v>85000</v>
+      </c>
+      <c r="F3434" t="n">
+        <v>701571</v>
+      </c>
+      <c r="G3434" t="n">
+        <v>-5.027932960893855</v>
+      </c>
+    </row>
+    <row r="3435">
+      <c r="A3435" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B3435" t="n">
+        <v>85100</v>
+      </c>
+      <c r="C3435" t="n">
+        <v>85200</v>
+      </c>
+      <c r="D3435" t="n">
+        <v>80300</v>
+      </c>
+      <c r="E3435" t="n">
+        <v>81100</v>
+      </c>
+      <c r="F3435" t="n">
+        <v>642702</v>
+      </c>
+      <c r="G3435" t="n">
+        <v>-4.588235294117647</v>
+      </c>
+    </row>
+    <row r="3436">
+      <c r="A3436" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B3436" t="n">
+        <v>81000</v>
+      </c>
+      <c r="C3436" t="n">
+        <v>82300</v>
+      </c>
+      <c r="D3436" t="n">
+        <v>79100</v>
+      </c>
+      <c r="E3436" t="n">
+        <v>81300</v>
+      </c>
+      <c r="F3436" t="n">
+        <v>373271</v>
+      </c>
+      <c r="G3436" t="n">
+        <v>0.2466091245376079</v>
+      </c>
+    </row>
+    <row r="3437">
+      <c r="A3437" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B3437" t="n">
+        <v>80100</v>
+      </c>
+      <c r="C3437" t="n">
+        <v>80400</v>
+      </c>
+      <c r="D3437" t="n">
+        <v>77900</v>
+      </c>
+      <c r="E3437" t="n">
+        <v>79300</v>
+      </c>
+      <c r="F3437" t="n">
+        <v>407630</v>
+      </c>
+      <c r="G3437" t="n">
+        <v>-2.460024600246002</v>
+      </c>
+    </row>
+    <row r="3438">
+      <c r="A3438" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B3438" t="n">
+        <v>78900</v>
+      </c>
+      <c r="C3438" t="n">
+        <v>79800</v>
+      </c>
+      <c r="D3438" t="n">
+        <v>77300</v>
+      </c>
+      <c r="E3438" t="n">
+        <v>78000</v>
+      </c>
+      <c r="F3438" t="n">
+        <v>273169</v>
+      </c>
+      <c r="G3438" t="n">
+        <v>-1.639344262295082</v>
+      </c>
+    </row>
+    <row r="3439">
+      <c r="A3439" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B3439" t="n">
+        <v>78200</v>
+      </c>
+      <c r="C3439" t="n">
+        <v>79300</v>
+      </c>
+      <c r="D3439" t="n">
+        <v>77600</v>
+      </c>
+      <c r="E3439" t="n">
+        <v>78000</v>
+      </c>
+      <c r="F3439" t="n">
+        <v>240532</v>
+      </c>
+      <c r="G3439" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3440">
+      <c r="A3440" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B3440" t="n">
+        <v>77200</v>
+      </c>
+      <c r="C3440" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D3440" t="n">
+        <v>76600</v>
+      </c>
+      <c r="E3440" t="n">
+        <v>77300</v>
+      </c>
+      <c r="F3440" t="n">
+        <v>316775</v>
+      </c>
+      <c r="G3440" t="n">
+        <v>-0.8974358974358974</v>
+      </c>
+    </row>
+    <row r="3441">
+      <c r="A3441" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B3441" t="n">
+        <v>78500</v>
+      </c>
+      <c r="C3441" t="n">
+        <v>84400</v>
+      </c>
+      <c r="D3441" t="n">
+        <v>78500</v>
+      </c>
+      <c r="E3441" t="n">
+        <v>84200</v>
+      </c>
+      <c r="F3441" t="n">
+        <v>559067</v>
+      </c>
+      <c r="G3441" t="n">
+        <v>8.926261319534282</v>
+      </c>
+    </row>
+    <row r="3442">
+      <c r="A3442" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B3442" t="n">
+        <v>84500</v>
+      </c>
+      <c r="C3442" t="n">
+        <v>86400</v>
+      </c>
+      <c r="D3442" t="n">
+        <v>84100</v>
+      </c>
+      <c r="E3442" t="n">
+        <v>86100</v>
+      </c>
+      <c r="F3442" t="n">
+        <v>480677</v>
+      </c>
+      <c r="G3442" t="n">
+        <v>2.256532066508314</v>
+      </c>
+    </row>
+    <row r="3443">
+      <c r="A3443" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B3443" t="n">
+        <v>86200</v>
+      </c>
+      <c r="C3443" t="n">
+        <v>87000</v>
+      </c>
+      <c r="D3443" t="n">
+        <v>85100</v>
+      </c>
+      <c r="E3443" t="n">
+        <v>85400</v>
+      </c>
+      <c r="F3443" t="n">
+        <v>279812</v>
+      </c>
+      <c r="G3443" t="n">
+        <v>-0.8130081300813009</v>
+      </c>
+    </row>
+    <row r="3444">
+      <c r="A3444" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B3444" t="n">
+        <v>84600</v>
+      </c>
+      <c r="C3444" t="n">
+        <v>87700</v>
+      </c>
+      <c r="D3444" t="n">
+        <v>84500</v>
+      </c>
+      <c r="E3444" t="n">
+        <v>86400</v>
+      </c>
+      <c r="F3444" t="n">
+        <v>282587</v>
+      </c>
+      <c r="G3444" t="n">
+        <v>1.17096018735363</v>
+      </c>
+    </row>
+    <row r="3445">
+      <c r="A3445" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B3445" t="n">
+        <v>86400</v>
+      </c>
+      <c r="C3445" t="n">
+        <v>90000</v>
+      </c>
+      <c r="D3445" t="n">
+        <v>85200</v>
+      </c>
+      <c r="E3445" t="n">
+        <v>88800</v>
+      </c>
+      <c r="F3445" t="n">
+        <v>406214</v>
+      </c>
+      <c r="G3445" t="n">
+        <v>2.777777777777778</v>
+      </c>
+    </row>
+    <row r="3446">
+      <c r="A3446" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B3446" t="n">
+        <v>89600</v>
+      </c>
+      <c r="C3446" t="n">
+        <v>89600</v>
+      </c>
+      <c r="D3446" t="n">
+        <v>87700</v>
+      </c>
+      <c r="E3446" t="n">
+        <v>88600</v>
+      </c>
+      <c r="F3446" t="n">
+        <v>261357</v>
+      </c>
+      <c r="G3446" t="n">
+        <v>-0.2252252252252252</v>
+      </c>
+    </row>
+    <row r="3447">
+      <c r="A3447" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B3447" t="n">
+        <v>87800</v>
+      </c>
+      <c r="C3447" t="n">
+        <v>89600</v>
+      </c>
+      <c r="D3447" t="n">
+        <v>87300</v>
+      </c>
+      <c r="E3447" t="n">
+        <v>87500</v>
+      </c>
+      <c r="F3447" t="n">
+        <v>475290</v>
+      </c>
+      <c r="G3447" t="n">
+        <v>-1.241534988713318</v>
+      </c>
+    </row>
+    <row r="3448">
+      <c r="A3448" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B3448" t="n">
+        <v>86500</v>
+      </c>
+      <c r="C3448" t="n">
+        <v>87100</v>
+      </c>
+      <c r="D3448" t="n">
+        <v>84300</v>
+      </c>
+      <c r="E3448" t="n">
+        <v>84800</v>
+      </c>
+      <c r="F3448" t="n">
+        <v>237021</v>
+      </c>
+      <c r="G3448" t="n">
+        <v>-3.085714285714286</v>
+      </c>
+    </row>
+    <row r="3449">
+      <c r="A3449" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B3449" t="n">
+        <v>85700</v>
+      </c>
+      <c r="C3449" t="n">
+        <v>86000</v>
+      </c>
+      <c r="D3449" t="n">
+        <v>83600</v>
+      </c>
+      <c r="E3449" t="n">
+        <v>83800</v>
+      </c>
+      <c r="F3449" t="n">
+        <v>156906</v>
+      </c>
+      <c r="G3449" t="n">
+        <v>-1.179245283018868</v>
+      </c>
+    </row>
+    <row r="3450">
+      <c r="A3450" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B3450" t="n">
+        <v>85400</v>
+      </c>
+      <c r="C3450" t="n">
+        <v>89000</v>
+      </c>
+      <c r="D3450" t="n">
+        <v>85400</v>
+      </c>
+      <c r="E3450" t="n">
+        <v>88300</v>
+      </c>
+      <c r="F3450" t="n">
+        <v>428850</v>
+      </c>
+      <c r="G3450" t="n">
+        <v>5.369928400954653</v>
+      </c>
+    </row>
+    <row r="3451">
+      <c r="A3451" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B3451" t="n">
+        <v>89100</v>
+      </c>
+      <c r="C3451" t="n">
+        <v>91700</v>
+      </c>
+      <c r="D3451" t="n">
+        <v>88600</v>
+      </c>
+      <c r="E3451" t="n">
+        <v>89500</v>
+      </c>
+      <c r="F3451" t="n">
+        <v>421854</v>
+      </c>
+      <c r="G3451" t="n">
+        <v>1.359003397508494</v>
+      </c>
+    </row>
+    <row r="3452">
+      <c r="A3452" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B3452" t="n">
+        <v>88900</v>
+      </c>
+      <c r="C3452" t="n">
+        <v>90000</v>
+      </c>
+      <c r="D3452" t="n">
+        <v>88300</v>
+      </c>
+      <c r="E3452" t="n">
+        <v>88600</v>
+      </c>
+      <c r="F3452" t="n">
+        <v>366593</v>
+      </c>
+      <c r="G3452" t="n">
+        <v>-1.005586592178771</v>
+      </c>
+    </row>
+    <row r="3453">
+      <c r="A3453" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B3453" t="n">
+        <v>91700</v>
+      </c>
+      <c r="C3453" t="n">
+        <v>92800</v>
+      </c>
+      <c r="D3453" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E3453" t="n">
+        <v>91900</v>
+      </c>
+      <c r="F3453" t="n">
+        <v>665090</v>
+      </c>
+      <c r="G3453" t="n">
+        <v>3.724604966139955</v>
+      </c>
+    </row>
+    <row r="3454">
+      <c r="A3454" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B3454" t="n">
+        <v>93200</v>
+      </c>
+      <c r="C3454" t="n">
+        <v>96400</v>
+      </c>
+      <c r="D3454" t="n">
+        <v>92600</v>
+      </c>
+      <c r="E3454" t="n">
+        <v>93100</v>
+      </c>
+      <c r="F3454" t="n">
+        <v>498272</v>
+      </c>
+      <c r="G3454" t="n">
+        <v>1.305767138193689</v>
+      </c>
+    </row>
+    <row r="3455">
+      <c r="A3455" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B3455" t="n">
+        <v>92300</v>
+      </c>
+      <c r="C3455" t="n">
+        <v>94000</v>
+      </c>
+      <c r="D3455" t="n">
+        <v>92100</v>
+      </c>
+      <c r="E3455" t="n">
+        <v>93000</v>
+      </c>
+      <c r="F3455" t="n">
+        <v>449439</v>
+      </c>
+      <c r="G3455" t="n">
+        <v>-0.1074113856068743</v>
+      </c>
+    </row>
+    <row r="3456">
+      <c r="A3456" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B3456" t="n">
+        <v>94700</v>
+      </c>
+      <c r="C3456" t="n">
+        <v>97500</v>
+      </c>
+      <c r="D3456" t="n">
+        <v>94200</v>
+      </c>
+      <c r="E3456" t="n">
+        <v>95000</v>
+      </c>
+      <c r="F3456" t="n">
+        <v>1144347</v>
+      </c>
+      <c r="G3456" t="n">
+        <v>2.150537634408602</v>
+      </c>
+    </row>
+    <row r="3457">
+      <c r="A3457" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B3457" t="n">
+        <v>94200</v>
+      </c>
+      <c r="C3457" t="n">
+        <v>94300</v>
+      </c>
+      <c r="D3457" t="n">
+        <v>87400</v>
+      </c>
+      <c r="E3457" t="n">
+        <v>88900</v>
+      </c>
+      <c r="F3457" t="n">
+        <v>619485</v>
+      </c>
+      <c r="G3457" t="n">
+        <v>-6.421052631578947</v>
+      </c>
+    </row>
+    <row r="3458">
+      <c r="A3458" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B3458" t="n">
+        <v>89700</v>
+      </c>
+      <c r="C3458" t="n">
+        <v>91900</v>
+      </c>
+      <c r="D3458" t="n">
+        <v>88000</v>
+      </c>
+      <c r="E3458" t="n">
+        <v>91700</v>
+      </c>
+      <c r="F3458" t="n">
+        <v>384260</v>
+      </c>
+      <c r="G3458" t="n">
+        <v>3.149606299212598</v>
+      </c>
+    </row>
+    <row r="3459">
+      <c r="A3459" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B3459" t="n">
+        <v>91400</v>
+      </c>
+      <c r="C3459" t="n">
+        <v>93500</v>
+      </c>
+      <c r="D3459" t="n">
+        <v>91000</v>
+      </c>
+      <c r="E3459" t="n">
+        <v>91800</v>
+      </c>
+      <c r="F3459" t="n">
+        <v>387897</v>
+      </c>
+      <c r="G3459" t="n">
+        <v>0.109051254089422</v>
       </c>
     </row>
   </sheetData>
